--- a/WebCatalogAuto/src/test/resources/data.xlsx
+++ b/WebCatalogAuto/src/test/resources/data.xlsx
@@ -126,7 +126,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView topLeftCell="A1" view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A1" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15"/>
